--- a/IL6MCP1/BASELINE/20200706.IL6MCP1.AE.BaselineTable.wholeCEA.xlsx
+++ b/IL6MCP1/BASELINE/20200706.IL6MCP1.AE.BaselineTable.wholeCEA.xlsx
@@ -1,32 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/swvanderlaan/PLINK/analyses/lookups/AE_20190912_010_MDICHGANS_SWVDLAAN_IL6_MCP1/IL6MCP1/BASELINE/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A65D96-9DE3-2A4A-8752-F1B6274ABBEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24080" windowHeight="17620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="wholeAEDB_Baseline" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="wholeAEDB_Baseline" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="493">
-  <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">level</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Overall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Missing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="493">
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>Overall</t>
+  </si>
+  <si>
+    <t>Missing</t>
+  </si>
+  <si>
+    <t>n</t>
   </si>
   <si>
     <t xml:space="preserve">   2423</t>
@@ -35,10 +43,10 @@
     <t xml:space="preserve">    </t>
   </si>
   <si>
-    <t xml:space="preserve">Hospital....freq.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">St. Antonius, Nieuwegein</t>
+    <t>Hospital....freq.</t>
+  </si>
+  <si>
+    <t>St. Antonius, Nieuwegein</t>
   </si>
   <si>
     <t xml:space="preserve">   39.1 ( 948) </t>
@@ -47,295 +55,295 @@
     <t xml:space="preserve"> 0.0</t>
   </si>
   <si>
-    <t xml:space="preserve">X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UMC Utrecht</t>
+    <t>X</t>
+  </si>
+  <si>
+    <t>UMC Utrecht</t>
   </si>
   <si>
     <t xml:space="preserve">   60.9 (1475) </t>
   </si>
   <si>
-    <t xml:space="preserve">ORyear....freq.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No data available/missing</t>
+    <t>ORyear....freq.</t>
+  </si>
+  <si>
+    <t>No data available/missing</t>
   </si>
   <si>
     <t xml:space="preserve">    0.0 (   0) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2002</t>
+    <t>X.1</t>
+  </si>
+  <si>
+    <t>2002</t>
   </si>
   <si>
     <t xml:space="preserve">    3.3 (  81) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2003</t>
+    <t>X.2</t>
+  </si>
+  <si>
+    <t>2003</t>
   </si>
   <si>
     <t xml:space="preserve">    6.5 ( 157) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2004</t>
+    <t>X.3</t>
+  </si>
+  <si>
+    <t>2004</t>
   </si>
   <si>
     <t xml:space="preserve">    7.8 ( 190) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005</t>
+    <t>X.4</t>
+  </si>
+  <si>
+    <t>2005</t>
   </si>
   <si>
     <t xml:space="preserve">    7.6 ( 185) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2006</t>
+    <t>X.5</t>
+  </si>
+  <si>
+    <t>2006</t>
   </si>
   <si>
     <t xml:space="preserve">    7.6 ( 183) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2007</t>
+    <t>X.6</t>
+  </si>
+  <si>
+    <t>2007</t>
   </si>
   <si>
     <t xml:space="preserve">    6.3 ( 152) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2008</t>
+    <t>X.7</t>
+  </si>
+  <si>
+    <t>2008</t>
   </si>
   <si>
     <t xml:space="preserve">    5.7 ( 138) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2009</t>
+    <t>X.8</t>
+  </si>
+  <si>
+    <t>2009</t>
   </si>
   <si>
     <t xml:space="preserve">    7.5 ( 182) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2010</t>
+    <t>X.9</t>
+  </si>
+  <si>
+    <t>2010</t>
   </si>
   <si>
     <t xml:space="preserve">    6.6 ( 159) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2011</t>
+    <t>X.10</t>
+  </si>
+  <si>
+    <t>2011</t>
   </si>
   <si>
     <t xml:space="preserve">    6.8 ( 164) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012</t>
+    <t>X.11</t>
+  </si>
+  <si>
+    <t>2012</t>
   </si>
   <si>
     <t xml:space="preserve">    7.3 ( 176) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013</t>
+    <t>X.12</t>
+  </si>
+  <si>
+    <t>2013</t>
   </si>
   <si>
     <t xml:space="preserve">    6.1 ( 149) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014</t>
+    <t>X.13</t>
+  </si>
+  <si>
+    <t>2014</t>
   </si>
   <si>
     <t xml:space="preserve">    6.7 ( 163) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015</t>
+    <t>X.14</t>
+  </si>
+  <si>
+    <t>2015</t>
   </si>
   <si>
     <t xml:space="preserve">    3.1 (  76) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016</t>
+    <t>X.15</t>
+  </si>
+  <si>
+    <t>2016</t>
   </si>
   <si>
     <t xml:space="preserve">    3.5 (  85) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017</t>
+    <t>X.16</t>
+  </si>
+  <si>
+    <t>2017</t>
   </si>
   <si>
     <t xml:space="preserve">    2.7 (  65) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018</t>
+    <t>X.17</t>
+  </si>
+  <si>
+    <t>2018</t>
   </si>
   <si>
     <t xml:space="preserve">    2.7 (  66) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019</t>
+    <t>X.18</t>
+  </si>
+  <si>
+    <t>2019</t>
   </si>
   <si>
     <t xml:space="preserve">    2.1 (  52) </t>
   </si>
   <si>
-    <t xml:space="preserve">Age..mean..SD..</t>
+    <t>Age..mean..SD..</t>
   </si>
   <si>
     <t xml:space="preserve"> 69.103 (9.302)</t>
   </si>
   <si>
-    <t xml:space="preserve">Gender....freq.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">female</t>
+    <t>Gender....freq.</t>
+  </si>
+  <si>
+    <t>female</t>
   </si>
   <si>
     <t xml:space="preserve">   30.5 ( 739) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">male</t>
+    <t>X.19</t>
+  </si>
+  <si>
+    <t>male</t>
   </si>
   <si>
     <t xml:space="preserve">   69.5 (1684) </t>
   </si>
   <si>
-    <t xml:space="preserve">TC_finalCU..mean..SD..</t>
-  </si>
-  <si>
-    <t xml:space="preserve">184.852 (56.275)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LDL_finalCU..mean..SD..</t>
-  </si>
-  <si>
-    <t xml:space="preserve">108.484 (41.794)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HDL_finalCU..mean..SD..</t>
+    <t>TC_finalCU..mean..SD..</t>
+  </si>
+  <si>
+    <t>184.852 (56.275)</t>
+  </si>
+  <si>
+    <t>38.0</t>
+  </si>
+  <si>
+    <t>LDL_finalCU..mean..SD..</t>
+  </si>
+  <si>
+    <t>108.484 (41.794)</t>
+  </si>
+  <si>
+    <t>45.6</t>
+  </si>
+  <si>
+    <t>HDL_finalCU..mean..SD..</t>
   </si>
   <si>
     <t xml:space="preserve"> 46.432 (16.999)</t>
   </si>
   <si>
-    <t xml:space="preserve">41.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TG_finalCU..mean..SD..</t>
-  </si>
-  <si>
-    <t xml:space="preserve">151.189 (91.249)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_final..mean..SD..</t>
+    <t>41.7</t>
+  </si>
+  <si>
+    <t>TG_finalCU..mean..SD..</t>
+  </si>
+  <si>
+    <t>151.189 (91.249)</t>
+  </si>
+  <si>
+    <t>42.8</t>
+  </si>
+  <si>
+    <t>TC_final..mean..SD..</t>
   </si>
   <si>
     <t xml:space="preserve">  4.788 (1.458)</t>
   </si>
   <si>
-    <t xml:space="preserve">LDL_final..mean..SD..</t>
+    <t>LDL_final..mean..SD..</t>
   </si>
   <si>
     <t xml:space="preserve">  2.810 (1.082)</t>
   </si>
   <si>
-    <t xml:space="preserve">HDL_final..mean..SD..</t>
+    <t>HDL_final..mean..SD..</t>
   </si>
   <si>
     <t xml:space="preserve">  1.203 (0.440)</t>
   </si>
   <si>
-    <t xml:space="preserve">TG_final..mean..SD..</t>
+    <t>TG_final..mean..SD..</t>
   </si>
   <si>
     <t xml:space="preserve">  1.708 (1.031)</t>
   </si>
   <si>
-    <t xml:space="preserve">hsCRP_plasma..mean..SD..</t>
+    <t>hsCRP_plasma..mean..SD..</t>
   </si>
   <si>
     <t xml:space="preserve"> 19.887 (231.453)</t>
   </si>
   <si>
-    <t xml:space="preserve">52.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">systolic..mean..SD..</t>
-  </si>
-  <si>
-    <t xml:space="preserve">152.408 (25.163)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">diastoli..mean..SD..</t>
+    <t>52.9</t>
+  </si>
+  <si>
+    <t>systolic..mean..SD..</t>
+  </si>
+  <si>
+    <t>152.408 (25.163)</t>
+  </si>
+  <si>
+    <t>11.3</t>
+  </si>
+  <si>
+    <t>diastoli..mean..SD..</t>
   </si>
   <si>
     <t xml:space="preserve"> 81.314 (25.178)</t>
   </si>
   <si>
-    <t xml:space="preserve">GFR_MDRD..mean..SD..</t>
+    <t>GFR_MDRD..mean..SD..</t>
   </si>
   <si>
     <t xml:space="preserve"> 73.115 (21.145)</t>
@@ -344,7 +352,7 @@
     <t xml:space="preserve"> 5.4</t>
   </si>
   <si>
-    <t xml:space="preserve">BMI..mean..SD..</t>
+    <t>BMI..mean..SD..</t>
   </si>
   <si>
     <t xml:space="preserve"> 26.488 (3.976)</t>
@@ -353,142 +361,142 @@
     <t xml:space="preserve"> 5.9</t>
   </si>
   <si>
-    <t xml:space="preserve">KDOQI....freq.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Normal kidney function</t>
+    <t>KDOQI....freq.</t>
+  </si>
+  <si>
+    <t>X.20</t>
+  </si>
+  <si>
+    <t>Normal kidney function</t>
   </si>
   <si>
     <t xml:space="preserve">   19.1 ( 462) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CKD 2 (Mild)</t>
+    <t>X.21</t>
+  </si>
+  <si>
+    <t>CKD 2 (Mild)</t>
   </si>
   <si>
     <t xml:space="preserve">   50.9 (1233) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CKD 3 (Moderate)</t>
+    <t>X.22</t>
+  </si>
+  <si>
+    <t>CKD 3 (Moderate)</t>
   </si>
   <si>
     <t xml:space="preserve">   22.9 ( 554) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CKD 4 (Severe)</t>
+    <t>X.23</t>
+  </si>
+  <si>
+    <t>CKD 4 (Severe)</t>
   </si>
   <si>
     <t xml:space="preserve">    1.3 (  32) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CKD 5 (Failure)</t>
+    <t>X.24</t>
+  </si>
+  <si>
+    <t>CKD 5 (Failure)</t>
   </si>
   <si>
     <t xml:space="preserve">    0.4 (  10) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.25</t>
+    <t>X.25</t>
   </si>
   <si>
     <t xml:space="preserve">    5.4 ( 132) </t>
   </si>
   <si>
-    <t xml:space="preserve">BMI_WHO....freq.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Underweight</t>
+    <t>BMI_WHO....freq.</t>
+  </si>
+  <si>
+    <t>X.26</t>
+  </si>
+  <si>
+    <t>Underweight</t>
   </si>
   <si>
     <t xml:space="preserve">    1.0 (  24) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Normal</t>
+    <t>X.27</t>
+  </si>
+  <si>
+    <t>Normal</t>
   </si>
   <si>
     <t xml:space="preserve">   35.1 ( 851) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Overweight</t>
+    <t>X.28</t>
+  </si>
+  <si>
+    <t>Overweight</t>
   </si>
   <si>
     <t xml:space="preserve">   43.4 (1052) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Obese</t>
+    <t>X.29</t>
+  </si>
+  <si>
+    <t>Obese</t>
   </si>
   <si>
     <t xml:space="preserve">   14.5 ( 352) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.30</t>
+    <t>X.30</t>
   </si>
   <si>
     <t xml:space="preserve">    5.9 ( 144) </t>
   </si>
   <si>
-    <t xml:space="preserve">SmokerStatus....freq.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Current smoker</t>
+    <t>SmokerStatus....freq.</t>
+  </si>
+  <si>
+    <t>Current smoker</t>
   </si>
   <si>
     <t xml:space="preserve">   33.2 ( 805) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ex-smoker</t>
+    <t>X.31</t>
+  </si>
+  <si>
+    <t>Ex-smoker</t>
   </si>
   <si>
     <t xml:space="preserve">   48.0 (1163) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Never smoked</t>
+    <t>X.32</t>
+  </si>
+  <si>
+    <t>Never smoked</t>
   </si>
   <si>
     <t xml:space="preserve">   12.9 ( 313) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.33</t>
+    <t>X.33</t>
   </si>
   <si>
     <t xml:space="preserve">    5.9 ( 142) </t>
   </si>
   <si>
-    <t xml:space="preserve">AlcoholUse....freq.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No</t>
+    <t>AlcoholUse....freq.</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
   <si>
     <t xml:space="preserve">   34.5 ( 835) </t>
@@ -497,25 +505,25 @@
     <t xml:space="preserve"> 4.1</t>
   </si>
   <si>
-    <t xml:space="preserve">X.34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes</t>
+    <t>X.34</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
   <si>
     <t xml:space="preserve">   61.5 (1489) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.35</t>
+    <t>X.35</t>
   </si>
   <si>
     <t xml:space="preserve">    4.1 (  99) </t>
   </si>
   <si>
-    <t xml:space="preserve">DiabetesStatus....freq.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Control (no Diabetes Dx/Med)</t>
+    <t>DiabetesStatus....freq.</t>
+  </si>
+  <si>
+    <t>Control (no Diabetes Dx/Med)</t>
   </si>
   <si>
     <t xml:space="preserve">   75.2 (1822) </t>
@@ -524,619 +532,619 @@
     <t xml:space="preserve"> 1.1</t>
   </si>
   <si>
-    <t xml:space="preserve">X.36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diabetes</t>
+    <t>X.36</t>
+  </si>
+  <si>
+    <t>Diabetes</t>
   </si>
   <si>
     <t xml:space="preserve">   23.7 ( 574) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.37</t>
+    <t>X.37</t>
   </si>
   <si>
     <t xml:space="preserve">    1.1 (  27) </t>
   </si>
   <si>
-    <t xml:space="preserve">Hypertension.selfreport....freq.</t>
+    <t>Hypertension.selfreport....freq.</t>
   </si>
   <si>
     <t xml:space="preserve"> 3.2</t>
   </si>
   <si>
-    <t xml:space="preserve">X.38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no</t>
+    <t>X.38</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
   <si>
     <t xml:space="preserve">   24.3 ( 590) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yes</t>
+    <t>X.39</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
   <si>
     <t xml:space="preserve">   72.4 (1755) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.40</t>
+    <t>X.40</t>
   </si>
   <si>
     <t xml:space="preserve">    3.2 (  78) </t>
   </si>
   <si>
-    <t xml:space="preserve">Hypertension.selfreportdrug....freq.</t>
+    <t>Hypertension.selfreportdrug....freq.</t>
   </si>
   <si>
     <t xml:space="preserve"> 4.4</t>
   </si>
   <si>
-    <t xml:space="preserve">X.41</t>
+    <t>X.41</t>
   </si>
   <si>
     <t xml:space="preserve">   30.0 ( 726) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.42</t>
+    <t>X.42</t>
   </si>
   <si>
     <t xml:space="preserve">   65.6 (1590) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.43</t>
+    <t>X.43</t>
   </si>
   <si>
     <t xml:space="preserve">    4.4 ( 107) </t>
   </si>
   <si>
-    <t xml:space="preserve">Hypertension.composite....freq.</t>
+    <t>Hypertension.composite....freq.</t>
   </si>
   <si>
     <t xml:space="preserve"> 1.2</t>
   </si>
   <si>
-    <t xml:space="preserve">X.44</t>
+    <t>X.44</t>
   </si>
   <si>
     <t xml:space="preserve">   14.6 ( 354) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.45</t>
+    <t>X.45</t>
   </si>
   <si>
     <t xml:space="preserve">   84.2 (2041) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.46</t>
+    <t>X.46</t>
   </si>
   <si>
     <t xml:space="preserve">    1.2 (  28) </t>
   </si>
   <si>
-    <t xml:space="preserve">Hypertension.drugs....freq.</t>
+    <t>Hypertension.drugs....freq.</t>
   </si>
   <si>
     <t xml:space="preserve"> 1.4</t>
   </si>
   <si>
-    <t xml:space="preserve">X.47</t>
+    <t>X.47</t>
   </si>
   <si>
     <t xml:space="preserve">   23.4 ( 566) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.48</t>
+    <t>X.48</t>
   </si>
   <si>
     <t xml:space="preserve">   75.3 (1824) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.49</t>
+    <t>X.49</t>
   </si>
   <si>
     <t xml:space="preserve">    1.4 (  33) </t>
   </si>
   <si>
-    <t xml:space="preserve">Med.anticoagulants....freq.</t>
+    <t>Med.anticoagulants....freq.</t>
   </si>
   <si>
     <t xml:space="preserve"> 1.6</t>
   </si>
   <si>
-    <t xml:space="preserve">X.50</t>
+    <t>X.50</t>
   </si>
   <si>
     <t xml:space="preserve">   87.3 (2116) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.51</t>
+    <t>X.51</t>
   </si>
   <si>
     <t xml:space="preserve">   11.1 ( 269) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.52</t>
+    <t>X.52</t>
   </si>
   <si>
     <t xml:space="preserve">    1.6 (  38) </t>
   </si>
   <si>
-    <t xml:space="preserve">Med.all.antiplatelet....freq.</t>
+    <t>Med.all.antiplatelet....freq.</t>
   </si>
   <si>
     <t xml:space="preserve"> 1.5</t>
   </si>
   <si>
-    <t xml:space="preserve">X.53</t>
+    <t>X.53</t>
   </si>
   <si>
     <t xml:space="preserve">   12.2 ( 295) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.54</t>
+    <t>X.54</t>
   </si>
   <si>
     <t xml:space="preserve">   86.3 (2092) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.55</t>
+    <t>X.55</t>
   </si>
   <si>
     <t xml:space="preserve">    1.5 (  36) </t>
   </si>
   <si>
-    <t xml:space="preserve">Med.Statin.LLD....freq.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.56</t>
+    <t>Med.Statin.LLD....freq.</t>
+  </si>
+  <si>
+    <t>X.56</t>
   </si>
   <si>
     <t xml:space="preserve">   20.3 ( 491) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.57</t>
+    <t>X.57</t>
   </si>
   <si>
     <t xml:space="preserve">   78.3 (1898) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.58</t>
+    <t>X.58</t>
   </si>
   <si>
     <t xml:space="preserve">    1.4 (  34) </t>
   </si>
   <si>
-    <t xml:space="preserve">Stroke_Dx....freq.</t>
+    <t>Stroke_Dx....freq.</t>
   </si>
   <si>
     <t xml:space="preserve"> 6.9</t>
   </si>
   <si>
-    <t xml:space="preserve">X.59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No stroke diagnosed</t>
+    <t>X.59</t>
+  </si>
+  <si>
+    <t>No stroke diagnosed</t>
   </si>
   <si>
     <t xml:space="preserve">   71.5 (1732) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stroke diagnosed</t>
+    <t>X.60</t>
+  </si>
+  <si>
+    <t>Stroke diagnosed</t>
   </si>
   <si>
     <t xml:space="preserve">   21.7 ( 525) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.61</t>
+    <t>X.61</t>
   </si>
   <si>
     <t xml:space="preserve">    6.9 ( 166) </t>
   </si>
   <si>
-    <t xml:space="preserve">sympt....freq.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">missing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asymptomatic</t>
+    <t>sympt....freq.</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>X.62</t>
+  </si>
+  <si>
+    <t>Asymptomatic</t>
   </si>
   <si>
     <t xml:space="preserve">   11.1 ( 270) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIA</t>
+    <t>X.63</t>
+  </si>
+  <si>
+    <t>TIA</t>
   </si>
   <si>
     <t xml:space="preserve">   39.7 ( 961) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">minor stroke</t>
+    <t>X.64</t>
+  </si>
+  <si>
+    <t>minor stroke</t>
   </si>
   <si>
     <t xml:space="preserve">   16.8 ( 407) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Major stroke</t>
+    <t>X.65</t>
+  </si>
+  <si>
+    <t>Major stroke</t>
   </si>
   <si>
     <t xml:space="preserve">    9.9 ( 239) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amaurosis fugax</t>
+    <t>X.66</t>
+  </si>
+  <si>
+    <t>Amaurosis fugax</t>
   </si>
   <si>
     <t xml:space="preserve">   15.7 ( 380) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Four vessel disease</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vertebrobasilary TIA</t>
+    <t>X.67</t>
+  </si>
+  <si>
+    <t>Four vessel disease</t>
+  </si>
+  <si>
+    <t>X.68</t>
+  </si>
+  <si>
+    <t>Vertebrobasilary TIA</t>
   </si>
   <si>
     <t xml:space="preserve">    0.2 (   5) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Retinal infarction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Symptomatic, but aspecific symtoms</t>
+    <t>X.69</t>
+  </si>
+  <si>
+    <t>Retinal infarction</t>
+  </si>
+  <si>
+    <t>X.70</t>
+  </si>
+  <si>
+    <t>Symptomatic, but aspecific symtoms</t>
   </si>
   <si>
     <t xml:space="preserve">    2.2 (  53) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contralateral symptomatic occlusion</t>
+    <t>X.71</t>
+  </si>
+  <si>
+    <t>Contralateral symptomatic occlusion</t>
   </si>
   <si>
     <t xml:space="preserve">    0.5 (  11) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">retinal infarction</t>
+    <t>X.72</t>
+  </si>
+  <si>
+    <t>retinal infarction</t>
   </si>
   <si>
     <t xml:space="preserve">    0.2 (   6) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">armclaudication due to occlusion subclavian artery, CEA needed for bypass</t>
+    <t>X.73</t>
+  </si>
+  <si>
+    <t>armclaudication due to occlusion subclavian artery, CEA needed for bypass</t>
   </si>
   <si>
     <t xml:space="preserve">    0.0 (   1) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">retinal infarction + TIAs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ocular ischemic syndrome</t>
+    <t>X.74</t>
+  </si>
+  <si>
+    <t>retinal infarction + TIAs</t>
+  </si>
+  <si>
+    <t>X.75</t>
+  </si>
+  <si>
+    <t>Ocular ischemic syndrome</t>
   </si>
   <si>
     <t xml:space="preserve">    0.7 (  16) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ischemisch glaucoom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">subclavian steal syndrome</t>
+    <t>X.76</t>
+  </si>
+  <si>
+    <t>ischemisch glaucoom</t>
+  </si>
+  <si>
+    <t>X.77</t>
+  </si>
+  <si>
+    <t>subclavian steal syndrome</t>
   </si>
   <si>
     <t xml:space="preserve">    0.1 (   2) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TGA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Symptoms.5G....freq.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ocular</t>
+    <t>X.78</t>
+  </si>
+  <si>
+    <t>TGA</t>
+  </si>
+  <si>
+    <t>Symptoms.5G....freq.</t>
+  </si>
+  <si>
+    <t>X.79</t>
+  </si>
+  <si>
+    <t>Ocular</t>
   </si>
   <si>
     <t xml:space="preserve">   16.3 ( 396) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other</t>
+    <t>X.80</t>
+  </si>
+  <si>
+    <t>Other</t>
   </si>
   <si>
     <t xml:space="preserve">    4.3 ( 105) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.81</t>
+    <t>X.81</t>
   </si>
   <si>
     <t xml:space="preserve">    1.7 (  40) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stroke</t>
+    <t>X.82</t>
+  </si>
+  <si>
+    <t>Stroke</t>
   </si>
   <si>
     <t xml:space="preserve">   26.7 ( 646) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.83</t>
+    <t>X.83</t>
   </si>
   <si>
     <t xml:space="preserve">   39.9 ( 966) </t>
   </si>
   <si>
-    <t xml:space="preserve">AsymptSympt....freq.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ocular and others</t>
+    <t>AsymptSympt....freq.</t>
+  </si>
+  <si>
+    <t>X.84</t>
+  </si>
+  <si>
+    <t>Ocular and others</t>
   </si>
   <si>
     <t xml:space="preserve">   22.3 ( 541) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Symptomatic</t>
+    <t>X.85</t>
+  </si>
+  <si>
+    <t>Symptomatic</t>
   </si>
   <si>
     <t xml:space="preserve">   66.5 (1612) </t>
   </si>
   <si>
-    <t xml:space="preserve">AsymptSympt2G....freq.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.86</t>
+    <t>AsymptSympt2G....freq.</t>
+  </si>
+  <si>
+    <t>X.86</t>
   </si>
   <si>
     <t xml:space="preserve">   88.9 (2153) </t>
   </si>
   <si>
-    <t xml:space="preserve">restenos....freq.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">de novo</t>
+    <t>restenos....freq.</t>
+  </si>
+  <si>
+    <t>X.87</t>
+  </si>
+  <si>
+    <t>de novo</t>
   </si>
   <si>
     <t xml:space="preserve">   93.7 (2270) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">restenosis</t>
+    <t>X.88</t>
+  </si>
+  <si>
+    <t>restenosis</t>
   </si>
   <si>
     <t xml:space="preserve">    4.9 ( 118) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stenose bij angioseal na PTCA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.90</t>
+    <t>X.89</t>
+  </si>
+  <si>
+    <t>stenose bij angioseal na PTCA</t>
+  </si>
+  <si>
+    <t>X.90</t>
   </si>
   <si>
     <t xml:space="preserve">    1.4 (  35) </t>
   </si>
   <si>
-    <t xml:space="preserve">stenose....freq.</t>
+    <t>stenose....freq.</t>
   </si>
   <si>
     <t xml:space="preserve"> 2.0</t>
   </si>
   <si>
-    <t xml:space="preserve">X.91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0-49%</t>
+    <t>X.91</t>
+  </si>
+  <si>
+    <t>0-49%</t>
   </si>
   <si>
     <t xml:space="preserve">    0.5 (  13) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50-70%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70-90%</t>
+    <t>X.92</t>
+  </si>
+  <si>
+    <t>50-70%</t>
+  </si>
+  <si>
+    <t>X.93</t>
+  </si>
+  <si>
+    <t>70-90%</t>
   </si>
   <si>
     <t xml:space="preserve">   46.5 (1127) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90-99%</t>
+    <t>X.94</t>
+  </si>
+  <si>
+    <t>90-99%</t>
   </si>
   <si>
     <t xml:space="preserve">   38.3 ( 928) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100% (Occlusion)</t>
+    <t>X.95</t>
+  </si>
+  <si>
+    <t>100% (Occlusion)</t>
   </si>
   <si>
     <t xml:space="preserve">    1.3 (  31) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50-99%</t>
+    <t>X.96</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>X.97</t>
+  </si>
+  <si>
+    <t>50-99%</t>
   </si>
   <si>
     <t xml:space="preserve">    0.6 (  15) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70-99%</t>
+    <t>X.98</t>
+  </si>
+  <si>
+    <t>70-99%</t>
   </si>
   <si>
     <t xml:space="preserve">    2.8 (  68) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.100</t>
+    <t>X.99</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>X.100</t>
   </si>
   <si>
     <t xml:space="preserve">    2.0 (  48) </t>
   </si>
   <si>
-    <t xml:space="preserve">MedHx_CVD....freq.</t>
+    <t>MedHx_CVD....freq.</t>
   </si>
   <si>
     <t xml:space="preserve">   36.9 ( 893) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.101</t>
+    <t>X.101</t>
   </si>
   <si>
     <t xml:space="preserve">   63.1 (1530) </t>
   </si>
   <si>
-    <t xml:space="preserve">CAD_history....freq.</t>
+    <t>CAD_history....freq.</t>
   </si>
   <si>
     <t xml:space="preserve"> 1.9</t>
   </si>
   <si>
-    <t xml:space="preserve">X.102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No history CAD</t>
+    <t>X.102</t>
+  </si>
+  <si>
+    <t>No history CAD</t>
   </si>
   <si>
     <t xml:space="preserve">   66.9 (1620) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">History CAD</t>
+    <t>X.103</t>
+  </si>
+  <si>
+    <t>History CAD</t>
   </si>
   <si>
     <t xml:space="preserve">   31.2 ( 756) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.104</t>
+    <t>X.104</t>
   </si>
   <si>
     <t xml:space="preserve">    1.9 (  47) </t>
   </si>
   <si>
-    <t xml:space="preserve">PAOD....freq.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">missing/no data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.105</t>
+    <t>PAOD....freq.</t>
+  </si>
+  <si>
+    <t>missing/no data</t>
+  </si>
+  <si>
+    <t>X.105</t>
   </si>
   <si>
     <t xml:space="preserve">   77.5 (1878) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.106</t>
+    <t>X.106</t>
   </si>
   <si>
     <t xml:space="preserve">   20.5 ( 497) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peripheral.interv....freq.</t>
+    <t>X.107</t>
+  </si>
+  <si>
+    <t>Peripheral.interv....freq.</t>
   </si>
   <si>
     <t xml:space="preserve">   77.2 (1870) </t>
@@ -1145,49 +1153,49 @@
     <t xml:space="preserve"> 2.9</t>
   </si>
   <si>
-    <t xml:space="preserve">X.108</t>
+    <t>X.108</t>
   </si>
   <si>
     <t xml:space="preserve">   19.9 ( 482) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.109</t>
+    <t>X.109</t>
   </si>
   <si>
     <t xml:space="preserve">    2.9 (  71) </t>
   </si>
   <si>
-    <t xml:space="preserve">EP_composite....freq.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No data available.</t>
+    <t>EP_composite....freq.</t>
+  </si>
+  <si>
+    <t>No data available.</t>
   </si>
   <si>
     <t xml:space="preserve"> 5.0</t>
   </si>
   <si>
-    <t xml:space="preserve">X.110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No composite endpoints</t>
+    <t>X.110</t>
+  </si>
+  <si>
+    <t>No composite endpoints</t>
   </si>
   <si>
     <t xml:space="preserve">   70.6 (1711) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Composite endpoints</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.112</t>
+    <t>X.111</t>
+  </si>
+  <si>
+    <t>Composite endpoints</t>
+  </si>
+  <si>
+    <t>X.112</t>
   </si>
   <si>
     <t xml:space="preserve">    5.0 ( 122) </t>
   </si>
   <si>
-    <t xml:space="preserve">EP_composite_time..mean..SD..</t>
+    <t>EP_composite_time..mean..SD..</t>
   </si>
   <si>
     <t xml:space="preserve">  2.479 (1.109)</t>
@@ -1196,160 +1204,160 @@
     <t xml:space="preserve"> 5.2</t>
   </si>
   <si>
-    <t xml:space="preserve">macmean0..mean..SD..</t>
+    <t>macmean0..mean..SD..</t>
   </si>
   <si>
     <t xml:space="preserve">  0.767 (1.183)</t>
   </si>
   <si>
-    <t xml:space="preserve">29.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">smcmean0..mean..SD..</t>
+    <t>29.7</t>
+  </si>
+  <si>
+    <t>smcmean0..mean..SD..</t>
   </si>
   <si>
     <t xml:space="preserve">  1.985 (2.380)</t>
   </si>
   <si>
-    <t xml:space="preserve">29.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macrophages.bin....freq.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no/minor</t>
+    <t>29.9</t>
+  </si>
+  <si>
+    <t>Macrophages.bin....freq.</t>
+  </si>
+  <si>
+    <t>no/minor</t>
   </si>
   <si>
     <t xml:space="preserve">   35.0 ( 847) </t>
   </si>
   <si>
-    <t xml:space="preserve">24.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">moderate/heavy</t>
+    <t>24.1</t>
+  </si>
+  <si>
+    <t>X.113</t>
+  </si>
+  <si>
+    <t>moderate/heavy</t>
   </si>
   <si>
     <t xml:space="preserve">   40.9 ( 992) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.114</t>
+    <t>X.114</t>
   </si>
   <si>
     <t xml:space="preserve">   24.1 ( 584) </t>
   </si>
   <si>
-    <t xml:space="preserve">SMC.bin....freq.</t>
+    <t>SMC.bin....freq.</t>
   </si>
   <si>
     <t xml:space="preserve">   24.8 ( 602) </t>
   </si>
   <si>
-    <t xml:space="preserve">23.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.115</t>
+    <t>23.8</t>
+  </si>
+  <si>
+    <t>X.115</t>
   </si>
   <si>
     <t xml:space="preserve">   51.3 (1244) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.116</t>
+    <t>X.116</t>
   </si>
   <si>
     <t xml:space="preserve">   23.8 ( 577) </t>
   </si>
   <si>
-    <t xml:space="preserve">neutrophils..mean..SD..</t>
-  </si>
-  <si>
-    <t xml:space="preserve">147.151 (419.998)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mast_cells_plaque..mean..SD..</t>
-  </si>
-  <si>
-    <t xml:space="preserve">164.488 (163.771)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IPH.bin....freq.</t>
+    <t>neutrophils..mean..SD..</t>
+  </si>
+  <si>
+    <t>147.151 (419.998)</t>
+  </si>
+  <si>
+    <t>87.5</t>
+  </si>
+  <si>
+    <t>Mast_cells_plaque..mean..SD..</t>
+  </si>
+  <si>
+    <t>164.488 (163.771)</t>
+  </si>
+  <si>
+    <t>90.0</t>
+  </si>
+  <si>
+    <t>IPH.bin....freq.</t>
   </si>
   <si>
     <t xml:space="preserve">   30.8 ( 746) </t>
   </si>
   <si>
-    <t xml:space="preserve">23.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.117</t>
+    <t>23.5</t>
+  </si>
+  <si>
+    <t>X.117</t>
   </si>
   <si>
     <t xml:space="preserve">   45.7 (1108) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.118</t>
+    <t>X.118</t>
   </si>
   <si>
     <t xml:space="preserve">   23.5 ( 569) </t>
   </si>
   <si>
-    <t xml:space="preserve">vessel_density_averaged..mean..SD..</t>
+    <t>vessel_density_averaged..mean..SD..</t>
   </si>
   <si>
     <t xml:space="preserve">  8.317 (6.384)</t>
   </si>
   <si>
-    <t xml:space="preserve">35.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calc.bin....freq.</t>
+    <t>35.1</t>
+  </si>
+  <si>
+    <t>Calc.bin....freq.</t>
   </si>
   <si>
     <t xml:space="preserve">   41.6 (1007) </t>
   </si>
   <si>
-    <t xml:space="preserve">23.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.119</t>
+    <t>23.4</t>
+  </si>
+  <si>
+    <t>X.119</t>
   </si>
   <si>
     <t xml:space="preserve">   35.1 ( 850) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Collagen.bin....freq.</t>
+    <t>X.120</t>
+  </si>
+  <si>
+    <t>Collagen.bin....freq.</t>
   </si>
   <si>
     <t xml:space="preserve">   15.8 ( 382) </t>
   </si>
   <si>
-    <t xml:space="preserve">23.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.121</t>
+    <t>23.6</t>
+  </si>
+  <si>
+    <t>X.121</t>
   </si>
   <si>
     <t xml:space="preserve">   60.6 (1469) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.122</t>
+    <t>X.122</t>
   </si>
   <si>
     <t xml:space="preserve">   23.6 ( 572) </t>
   </si>
   <si>
-    <t xml:space="preserve">Fat.bin_10....freq.</t>
+    <t>Fat.bin_10....freq.</t>
   </si>
   <si>
     <t xml:space="preserve"> &lt;10%</t>
@@ -1358,10 +1366,10 @@
     <t xml:space="preserve">   22.4 ( 542) </t>
   </si>
   <si>
-    <t xml:space="preserve">23.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.123</t>
+    <t>23.3</t>
+  </si>
+  <si>
+    <t>X.123</t>
   </si>
   <si>
     <t xml:space="preserve"> &gt;10%</t>
@@ -1370,135 +1378,134 @@
     <t xml:space="preserve">   54.3 (1316) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.124</t>
+    <t>X.124</t>
   </si>
   <si>
     <t xml:space="preserve">   23.3 ( 565) </t>
   </si>
   <si>
-    <t xml:space="preserve">Fat.bin_40....freq.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;40%</t>
+    <t>Fat.bin_40....freq.</t>
+  </si>
+  <si>
+    <t>&lt;40%</t>
   </si>
   <si>
     <t xml:space="preserve">   56.2 (1362) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&gt;40%</t>
+    <t>X.125</t>
+  </si>
+  <si>
+    <t>&gt;40%</t>
   </si>
   <si>
     <t xml:space="preserve">   20.5 ( 496) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OverallPlaquePhenotype....freq.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">atheromatous</t>
+    <t>X.126</t>
+  </si>
+  <si>
+    <t>OverallPlaquePhenotype....freq.</t>
+  </si>
+  <si>
+    <t>atheromatous</t>
   </si>
   <si>
     <t xml:space="preserve">   19.8 ( 480) </t>
   </si>
   <si>
-    <t xml:space="preserve">23.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X.127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fibroatheromatous</t>
+    <t>23.7</t>
+  </si>
+  <si>
+    <t>X.127</t>
+  </si>
+  <si>
+    <t>fibroatheromatous</t>
   </si>
   <si>
     <t xml:space="preserve">   27.8 ( 674) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fibrous</t>
+    <t>X.128</t>
+  </si>
+  <si>
+    <t>fibrous</t>
   </si>
   <si>
     <t xml:space="preserve">   28.7 ( 695) </t>
   </si>
   <si>
-    <t xml:space="preserve">X.129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IL6..mean..SD..</t>
+    <t>X.129</t>
+  </si>
+  <si>
+    <t>IL6..mean..SD..</t>
   </si>
   <si>
     <t xml:space="preserve"> 98.812 (292.457)</t>
   </si>
   <si>
-    <t xml:space="preserve">78.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IL6_pg_ug_2015..mean..SD..</t>
+    <t>78.2</t>
+  </si>
+  <si>
+    <t>IL6_pg_ug_2015..mean..SD..</t>
   </si>
   <si>
     <t xml:space="preserve">  0.138 (0.556)</t>
   </si>
   <si>
-    <t xml:space="preserve">52.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IL6R_pg_ug_2015..mean..SD..</t>
+    <t>52.5</t>
+  </si>
+  <si>
+    <t>IL6R_pg_ug_2015..mean..SD..</t>
   </si>
   <si>
     <t xml:space="preserve">  0.211 (0.251)</t>
   </si>
   <si>
-    <t xml:space="preserve">52.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MCP1..mean..SD..</t>
-  </si>
-  <si>
-    <t xml:space="preserve">135.763 (120.028)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MCP1_pg_ug_2015..mean..SD..</t>
+    <t>52.4</t>
+  </si>
+  <si>
+    <t>MCP1..mean..SD..</t>
+  </si>
+  <si>
+    <t>135.763 (120.028)</t>
+  </si>
+  <si>
+    <t>76.7</t>
+  </si>
+  <si>
+    <t>MCP1_pg_ug_2015..mean..SD..</t>
   </si>
   <si>
     <t xml:space="preserve">  0.612 (0.904)</t>
   </si>
   <si>
-    <t xml:space="preserve">50.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MCP1_pg_ml_2015..mean..SD..</t>
-  </si>
-  <si>
-    <t xml:space="preserve">600.444 (858.416)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MCP1_plasma_olink..mean..SD..</t>
+    <t>50.6</t>
+  </si>
+  <si>
+    <t>MCP1_pg_ml_2015..mean..SD..</t>
+  </si>
+  <si>
+    <t>600.444 (858.416)</t>
+  </si>
+  <si>
+    <t>50.5</t>
+  </si>
+  <si>
+    <t>MCP1_plasma_olink..mean..SD..</t>
   </si>
   <si>
     <t xml:space="preserve">  3.608 (0.579)</t>
   </si>
   <si>
-    <t xml:space="preserve">71.6</t>
+    <t>71.6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1534,6 +1541,15 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1815,14 +1831,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D194"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A58" sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1836,7 +1860,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1850,7 +1874,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1864,7 +1888,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1878,7 +1902,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1892,7 +1916,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1906,7 +1930,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -1920,7 +1944,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -1934,7 +1958,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -1948,7 +1972,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -1962,7 +1986,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -1976,7 +2000,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -1990,7 +2014,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -2004,7 +2028,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -2018,7 +2042,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -2032,7 +2056,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>47</v>
       </c>
@@ -2046,7 +2070,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>50</v>
       </c>
@@ -2060,7 +2084,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>53</v>
       </c>
@@ -2074,7 +2098,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>56</v>
       </c>
@@ -2088,7 +2112,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>59</v>
       </c>
@@ -2102,7 +2126,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>62</v>
       </c>
@@ -2116,7 +2140,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>65</v>
       </c>
@@ -2130,7 +2154,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>68</v>
       </c>
@@ -2144,7 +2168,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>71</v>
       </c>
@@ -2158,7 +2182,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>73</v>
       </c>
@@ -2172,7 +2196,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>76</v>
       </c>
@@ -2186,7 +2210,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>79</v>
       </c>
@@ -2200,7 +2224,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>82</v>
       </c>
@@ -2214,7 +2238,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>85</v>
       </c>
@@ -2228,7 +2252,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>88</v>
       </c>
@@ -2242,7 +2266,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>91</v>
       </c>
@@ -2256,7 +2280,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>93</v>
       </c>
@@ -2270,7 +2294,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>95</v>
       </c>
@@ -2284,7 +2308,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>97</v>
       </c>
@@ -2298,7 +2322,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>99</v>
       </c>
@@ -2312,7 +2336,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>102</v>
       </c>
@@ -2326,7 +2350,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>105</v>
       </c>
@@ -2340,7 +2364,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>107</v>
       </c>
@@ -2354,7 +2378,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>110</v>
       </c>
@@ -2368,7 +2392,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>113</v>
       </c>
@@ -2382,7 +2406,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>114</v>
       </c>
@@ -2396,7 +2420,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>117</v>
       </c>
@@ -2410,7 +2434,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>120</v>
       </c>
@@ -2424,7 +2448,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>123</v>
       </c>
@@ -2438,7 +2462,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>126</v>
       </c>
@@ -2452,11 +2476,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>129</v>
       </c>
-      <c r="B46"/>
       <c r="C46" t="s">
         <v>130</v>
       </c>
@@ -2464,7 +2487,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>131</v>
       </c>
@@ -2478,7 +2501,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>132</v>
       </c>
@@ -2492,7 +2515,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>135</v>
       </c>
@@ -2506,7 +2529,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>138</v>
       </c>
@@ -2520,7 +2543,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>141</v>
       </c>
@@ -2534,11 +2557,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>144</v>
       </c>
-      <c r="B52"/>
       <c r="C52" t="s">
         <v>145</v>
       </c>
@@ -2546,7 +2568,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>146</v>
       </c>
@@ -2560,7 +2582,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>149</v>
       </c>
@@ -2574,7 +2596,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>152</v>
       </c>
@@ -2588,11 +2610,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>155</v>
       </c>
-      <c r="B56"/>
       <c r="C56" t="s">
         <v>156</v>
       </c>
@@ -2600,7 +2621,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>157</v>
       </c>
@@ -2614,7 +2635,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>161</v>
       </c>
@@ -2628,11 +2649,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>164</v>
       </c>
-      <c r="B59"/>
       <c r="C59" t="s">
         <v>165</v>
       </c>
@@ -2640,7 +2660,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>166</v>
       </c>
@@ -2654,7 +2674,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>170</v>
       </c>
@@ -2668,11 +2688,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>173</v>
       </c>
-      <c r="B62"/>
       <c r="C62" t="s">
         <v>174</v>
       </c>
@@ -2680,7 +2699,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>175</v>
       </c>
@@ -2694,7 +2713,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>177</v>
       </c>
@@ -2708,7 +2727,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>180</v>
       </c>
@@ -2722,11 +2741,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>183</v>
       </c>
-      <c r="B66"/>
       <c r="C66" t="s">
         <v>184</v>
       </c>
@@ -2734,7 +2752,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>185</v>
       </c>
@@ -2748,7 +2766,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>187</v>
       </c>
@@ -2762,7 +2780,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>189</v>
       </c>
@@ -2776,11 +2794,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>191</v>
       </c>
-      <c r="B70"/>
       <c r="C70" t="s">
         <v>192</v>
       </c>
@@ -2788,7 +2805,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>193</v>
       </c>
@@ -2802,7 +2819,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>195</v>
       </c>
@@ -2816,7 +2833,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>197</v>
       </c>
@@ -2830,11 +2847,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>199</v>
       </c>
-      <c r="B74"/>
       <c r="C74" t="s">
         <v>200</v>
       </c>
@@ -2842,7 +2858,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>201</v>
       </c>
@@ -2856,7 +2872,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>203</v>
       </c>
@@ -2870,7 +2886,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>205</v>
       </c>
@@ -2884,11 +2900,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>207</v>
       </c>
-      <c r="B78"/>
       <c r="C78" t="s">
         <v>208</v>
       </c>
@@ -2896,7 +2911,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>209</v>
       </c>
@@ -2910,7 +2925,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>211</v>
       </c>
@@ -2924,7 +2939,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>213</v>
       </c>
@@ -2938,11 +2953,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>215</v>
       </c>
-      <c r="B82"/>
       <c r="C82" t="s">
         <v>216</v>
       </c>
@@ -2950,7 +2964,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>217</v>
       </c>
@@ -2964,7 +2978,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>219</v>
       </c>
@@ -2978,7 +2992,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>221</v>
       </c>
@@ -2992,11 +3006,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>223</v>
       </c>
-      <c r="B86"/>
       <c r="C86" t="s">
         <v>224</v>
       </c>
@@ -3004,7 +3017,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>225</v>
       </c>
@@ -3018,7 +3031,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>226</v>
       </c>
@@ -3032,7 +3045,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>228</v>
       </c>
@@ -3046,11 +3059,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>230</v>
       </c>
-      <c r="B90"/>
       <c r="C90" t="s">
         <v>231</v>
       </c>
@@ -3058,7 +3070,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>232</v>
       </c>
@@ -3072,7 +3084,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>234</v>
       </c>
@@ -3086,7 +3098,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>237</v>
       </c>
@@ -3100,11 +3112,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>240</v>
       </c>
-      <c r="B94"/>
       <c r="C94" t="s">
         <v>241</v>
       </c>
@@ -3112,7 +3123,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>242</v>
       </c>
@@ -3126,7 +3137,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>244</v>
       </c>
@@ -3140,7 +3151,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>247</v>
       </c>
@@ -3154,7 +3165,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>250</v>
       </c>
@@ -3168,7 +3179,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>253</v>
       </c>
@@ -3182,7 +3193,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>256</v>
       </c>
@@ -3196,7 +3207,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>259</v>
       </c>
@@ -3210,7 +3221,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>261</v>
       </c>
@@ -3224,7 +3235,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>264</v>
       </c>
@@ -3238,7 +3249,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>266</v>
       </c>
@@ -3252,7 +3263,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>269</v>
       </c>
@@ -3266,7 +3277,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>272</v>
       </c>
@@ -3280,7 +3291,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>275</v>
       </c>
@@ -3294,7 +3305,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>278</v>
       </c>
@@ -3308,7 +3319,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>280</v>
       </c>
@@ -3322,7 +3333,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>283</v>
       </c>
@@ -3336,7 +3347,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>285</v>
       </c>
@@ -3350,7 +3361,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>288</v>
       </c>
@@ -3364,7 +3375,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>290</v>
       </c>
@@ -3378,7 +3389,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>291</v>
       </c>
@@ -3392,7 +3403,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>294</v>
       </c>
@@ -3406,7 +3417,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>297</v>
       </c>
@@ -3420,7 +3431,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>299</v>
       </c>
@@ -3434,7 +3445,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>302</v>
       </c>
@@ -3448,7 +3459,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>304</v>
       </c>
@@ -3462,7 +3473,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>305</v>
       </c>
@@ -3476,7 +3487,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>308</v>
       </c>
@@ -3490,7 +3501,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>311</v>
       </c>
@@ -3504,7 +3515,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>312</v>
       </c>
@@ -3518,7 +3529,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>314</v>
       </c>
@@ -3532,7 +3543,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>315</v>
       </c>
@@ -3546,7 +3557,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>318</v>
       </c>
@@ -3560,7 +3571,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>321</v>
       </c>
@@ -3574,11 +3585,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>323</v>
       </c>
-      <c r="B128"/>
       <c r="C128" t="s">
         <v>324</v>
       </c>
@@ -3586,7 +3596,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>325</v>
       </c>
@@ -3600,7 +3610,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>327</v>
       </c>
@@ -3614,7 +3624,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>330</v>
       </c>
@@ -3628,7 +3638,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>332</v>
       </c>
@@ -3642,7 +3652,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>335</v>
       </c>
@@ -3656,7 +3666,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>338</v>
       </c>
@@ -3670,7 +3680,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>341</v>
       </c>
@@ -3684,7 +3694,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>343</v>
       </c>
@@ -3698,7 +3708,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>346</v>
       </c>
@@ -3712,7 +3722,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>349</v>
       </c>
@@ -3726,11 +3736,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>351</v>
       </c>
-      <c r="B139"/>
       <c r="C139" t="s">
         <v>352</v>
       </c>
@@ -3738,7 +3747,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>353</v>
       </c>
@@ -3752,7 +3761,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>355</v>
       </c>
@@ -3766,7 +3775,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>357</v>
       </c>
@@ -3780,7 +3789,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>359</v>
       </c>
@@ -3794,7 +3803,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>362</v>
       </c>
@@ -3808,11 +3817,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>365</v>
       </c>
-      <c r="B145"/>
       <c r="C145" t="s">
         <v>366</v>
       </c>
@@ -3820,7 +3828,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>367</v>
       </c>
@@ -3834,7 +3842,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>369</v>
       </c>
@@ -3848,7 +3856,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>371</v>
       </c>
@@ -3862,11 +3870,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>373</v>
       </c>
-      <c r="B149"/>
       <c r="C149" t="s">
         <v>352</v>
       </c>
@@ -3874,7 +3881,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>374</v>
       </c>
@@ -3888,7 +3895,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>377</v>
       </c>
@@ -3902,11 +3909,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>379</v>
       </c>
-      <c r="B152"/>
       <c r="C152" t="s">
         <v>380</v>
       </c>
@@ -3914,7 +3920,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>381</v>
       </c>
@@ -3928,7 +3934,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>384</v>
       </c>
@@ -3942,7 +3948,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>387</v>
       </c>
@@ -3956,11 +3962,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>389</v>
       </c>
-      <c r="B156"/>
       <c r="C156" t="s">
         <v>390</v>
       </c>
@@ -3968,7 +3973,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>391</v>
       </c>
@@ -3982,7 +3987,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>394</v>
       </c>
@@ -3996,7 +4001,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>397</v>
       </c>
@@ -4010,7 +4015,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>400</v>
       </c>
@@ -4024,7 +4029,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>404</v>
       </c>
@@ -4038,11 +4043,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>407</v>
       </c>
-      <c r="B162"/>
       <c r="C162" t="s">
         <v>408</v>
       </c>
@@ -4050,7 +4054,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>409</v>
       </c>
@@ -4064,7 +4068,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>412</v>
       </c>
@@ -4078,11 +4082,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>414</v>
       </c>
-      <c r="B165"/>
       <c r="C165" t="s">
         <v>415</v>
       </c>
@@ -4090,7 +4093,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>416</v>
       </c>
@@ -4104,7 +4107,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>419</v>
       </c>
@@ -4118,7 +4121,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>422</v>
       </c>
@@ -4132,7 +4135,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>425</v>
       </c>
@@ -4146,11 +4149,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>427</v>
       </c>
-      <c r="B170"/>
       <c r="C170" t="s">
         <v>428</v>
       </c>
@@ -4158,7 +4160,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>429</v>
       </c>
@@ -4172,7 +4174,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>432</v>
       </c>
@@ -4186,7 +4188,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>435</v>
       </c>
@@ -4200,11 +4202,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>437</v>
       </c>
-      <c r="B174"/>
       <c r="C174" t="s">
         <v>204</v>
       </c>
@@ -4212,7 +4213,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>438</v>
       </c>
@@ -4226,7 +4227,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="176">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>441</v>
       </c>
@@ -4240,11 +4241,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>443</v>
       </c>
-      <c r="B177"/>
       <c r="C177" t="s">
         <v>444</v>
       </c>
@@ -4252,7 +4252,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>445</v>
       </c>
@@ -4266,7 +4266,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>449</v>
       </c>
@@ -4280,11 +4280,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>452</v>
       </c>
-      <c r="B180"/>
       <c r="C180" t="s">
         <v>453</v>
       </c>
@@ -4292,7 +4291,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>454</v>
       </c>
@@ -4306,7 +4305,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="182">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>457</v>
       </c>
@@ -4320,11 +4319,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="183">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>460</v>
       </c>
-      <c r="B183"/>
       <c r="C183" t="s">
         <v>453</v>
       </c>
@@ -4332,7 +4330,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="184">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>461</v>
       </c>
@@ -4346,7 +4344,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>465</v>
       </c>
@@ -4360,7 +4358,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="186">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>468</v>
       </c>
@@ -4374,11 +4372,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="187">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>471</v>
       </c>
-      <c r="B187"/>
       <c r="C187" t="s">
         <v>172</v>
       </c>
@@ -4386,7 +4383,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="188">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>472</v>
       </c>
@@ -4400,7 +4397,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="189">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>475</v>
       </c>
@@ -4414,7 +4411,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="190">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>478</v>
       </c>
@@ -4428,7 +4425,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="191">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>481</v>
       </c>
@@ -4442,7 +4439,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="192">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>484</v>
       </c>
@@ -4456,7 +4453,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="193">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>487</v>
       </c>
@@ -4470,7 +4467,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="194">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>490</v>
       </c>
@@ -4486,6 +4483,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>